--- a/public/resources/apartments_template.xlsx
+++ b/public/resources/apartments_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14F1AD-8504-4C44-B67B-7A487B114B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E19A07-12E0-4115-841B-9811BC1C7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="604">
   <si>
     <t>1E</t>
   </si>
@@ -1835,6 +1835,9 @@
   </si>
   <si>
     <t>apartment</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2127,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF284E3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2186,9 +2223,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2203,11 +2240,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D170">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E170">
+  <tableColumns count="5">
+    <tableColumn id="3" xr3:uid="{1AA7CFE7-A8C7-4DBD-901E-CC64365FB901}" name="order" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="apartment"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="email" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2412,11 +2450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C170"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2429,2392 +2467,2902 @@
     <col min="6" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="E79" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="E85" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="D87" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="E89" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="D91" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="D93" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="E99" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="D103" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="D105" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="D109" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="D114" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="D115" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="D117" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="D118" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="D119" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="D121" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="D122" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="E122" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="D123" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="D125" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="D127" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="D129" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="D131" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="D132" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="E132" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="E133" s="8" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="D137" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="E137" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="D138" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="D139" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="D140" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="D141" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="C142" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="D142" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="E143" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="D144" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="D145" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="E145" s="8" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="D146" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="E146" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="D147" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="D148" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7">
+        <v>148</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="D149" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="C150" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="D150" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7">
+        <v>150</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="D151" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="D152" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="E152" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7">
+        <v>152</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="C153" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="E153" s="8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="C154" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="E154" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="C155" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="D155" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="E155" s="8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="D156" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="C157" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="D157" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="7">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="C159" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="D159" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="7">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="E160" s="5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="C161" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="D161" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="E161" s="8" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="D162" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="E162" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="7" t="s">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="C163" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="D163" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="E163" s="8" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="E164" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7" t="s">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="7">
+        <v>164</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="C165" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="E165" s="8" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="D166" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="7">
+        <v>166</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="C167" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="D167" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="E167" s="8" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="7">
+        <v>168</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="D169" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="E169" s="8" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="C170" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="E170" s="11" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5641,175 +6189,175 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="C170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
